--- a/guarana.xlsx
+++ b/guarana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\faculadade - Copia\Cdados\p1 cdados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insper\2\Ciência dos Dados\P1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF3C0D-0939-4DCC-BB96-E9272680F95E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCADC62-BBB0-42C7-8F37-45B6B1D74812}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="462">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1600,29 +1600,6 @@
   </si>
   <si>
     <t>@guarana olha aí q lindo ademir, vc poderia tá junto né seu malandro kkkkkkkkkkk https://t.co/kumvxrpxhf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>relevancia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1681,11 +1658,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2026,21 +2004,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2048,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2056,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2080,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2104,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2112,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2128,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2136,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2144,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2152,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2160,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2176,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2184,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2192,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2208,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2216,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2224,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2232,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2248,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2256,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2264,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2272,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2280,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2296,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2304,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2312,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2320,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2328,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2336,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2344,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2352,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2360,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2368,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2376,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2384,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2392,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2400,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2408,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2416,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2424,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2432,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2440,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2448,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2456,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2464,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2472,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2480,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2488,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2496,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2504,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2512,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2520,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2528,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2536,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2544,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2552,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2560,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2576,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2584,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2592,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2600,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2608,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2616,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2624,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2632,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2640,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2648,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2656,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2664,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2672,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2680,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2688,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2696,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2704,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2712,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2720,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2728,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2736,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2744,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2752,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2760,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2768,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2776,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2784,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2792,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2800,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2808,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2816,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2824,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2832,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2840,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2848,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2856,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2864,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2872,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2880,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2888,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2896,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2904,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2912,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2920,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2928,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2936,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2944,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2952,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2960,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2968,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2976,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2984,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2992,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3000,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3008,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3016,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3024,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3032,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3040,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3048,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3056,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3064,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3072,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3080,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3088,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3096,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3104,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3112,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3120,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3128,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3136,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3144,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3152,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3160,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3168,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3176,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3184,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3192,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3200,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3208,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3216,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3224,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3232,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3240,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3248,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3256,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3264,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3272,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3280,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3288,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3296,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3304,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3312,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3320,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3328,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3336,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3344,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3352,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3360,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3368,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3376,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3384,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3392,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3400,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3408,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3416,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3424,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3432,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3440,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3448,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3456,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3464,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3472,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3480,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3488,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3496,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3504,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3512,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3520,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3528,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3536,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3544,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3552,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3560,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3568,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3576,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3584,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3592,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3600,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3608,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3616,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3624,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3632,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3640,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3648,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3656,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -3664,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3672,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3680,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -3688,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -3696,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3704,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3712,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3720,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3728,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -3736,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3744,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3752,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3760,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3768,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3776,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3784,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3792,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3800,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3808,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3816,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3824,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3832,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3840,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3848,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3856,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3864,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3872,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3880,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3888,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3896,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3904,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3912,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3920,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3928,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3936,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -3944,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3952,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3960,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3968,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3976,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -3984,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -3992,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4000,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -4008,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -4016,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4024,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4032,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4040,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4048,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4056,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4064,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4072,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4080,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4088,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4096,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4104,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4112,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4120,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -4128,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -4136,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -4144,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4152,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4160,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4168,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4176,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4184,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4192,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -4200,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -4208,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -4216,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -4224,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -4232,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -4240,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -4248,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -4256,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -4264,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -4272,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -4280,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -4288,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -4296,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -4304,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -4312,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -4320,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -4328,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -4336,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -4344,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -4352,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -4360,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -4368,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -4376,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -4384,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -4392,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -4400,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -4408,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -4416,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -4424,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -4432,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -4450,16 +4428,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="225.44140625" customWidth="1"/>
+    <col min="1" max="1" width="225.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -4467,7 +4445,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>303</v>
       </c>
@@ -4475,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>304</v>
       </c>
@@ -4483,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -4491,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>306</v>
       </c>
@@ -4499,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>307</v>
       </c>
@@ -4507,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -4515,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>309</v>
       </c>
@@ -4523,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>310</v>
       </c>
@@ -4531,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>311</v>
       </c>
@@ -4539,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -4547,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>313</v>
       </c>
@@ -4555,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>314</v>
       </c>
@@ -4563,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>315</v>
       </c>
@@ -4571,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -4579,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>317</v>
       </c>
@@ -4587,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -4595,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>319</v>
       </c>
@@ -4603,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>320</v>
       </c>
@@ -4611,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>321</v>
       </c>
@@ -4619,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>322</v>
       </c>
@@ -4627,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>323</v>
       </c>
@@ -4635,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>324</v>
       </c>
@@ -4643,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>325</v>
       </c>
@@ -4651,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>326</v>
       </c>
@@ -4659,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>327</v>
       </c>
@@ -4667,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>328</v>
       </c>
@@ -4675,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>329</v>
       </c>
@@ -4683,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>330</v>
       </c>
@@ -4691,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>331</v>
       </c>
@@ -4699,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>332</v>
       </c>
@@ -4707,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>333</v>
       </c>
@@ -4715,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>334</v>
       </c>
@@ -4723,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>335</v>
       </c>
@@ -4731,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>336</v>
       </c>
@@ -4739,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>337</v>
       </c>
@@ -4747,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>338</v>
       </c>
@@ -4755,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>339</v>
       </c>
@@ -4763,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>340</v>
       </c>
@@ -4771,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>341</v>
       </c>
@@ -4779,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>342</v>
       </c>
@@ -4787,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>343</v>
       </c>
@@ -4795,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>344</v>
       </c>
@@ -4803,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>345</v>
       </c>
@@ -4811,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>346</v>
       </c>
@@ -4819,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>347</v>
       </c>
@@ -4827,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>348</v>
       </c>
@@ -4835,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>349</v>
       </c>
@@ -4843,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>350</v>
       </c>
@@ -4851,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>351</v>
       </c>
@@ -4859,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>352</v>
       </c>
@@ -4867,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>353</v>
       </c>
@@ -4875,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>354</v>
       </c>
@@ -4883,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>355</v>
       </c>
@@ -4891,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>356</v>
       </c>
@@ -4899,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>357</v>
       </c>
@@ -4907,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>358</v>
       </c>
@@ -4915,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>359</v>
       </c>
@@ -4923,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>360</v>
       </c>
@@ -4931,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>361</v>
       </c>
@@ -4939,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>362</v>
       </c>
@@ -4947,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>363</v>
       </c>
@@ -4955,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -4963,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>365</v>
       </c>
@@ -4971,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>366</v>
       </c>
@@ -4979,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>367</v>
       </c>
@@ -4987,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>368</v>
       </c>
@@ -4995,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>369</v>
       </c>
@@ -5003,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>370</v>
       </c>
@@ -5011,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>371</v>
       </c>
@@ -5019,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>372</v>
       </c>
@@ -5027,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>373</v>
       </c>
@@ -5035,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>374</v>
       </c>
@@ -5043,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>375</v>
       </c>
@@ -5051,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -5059,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>377</v>
       </c>
@@ -5067,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>378</v>
       </c>
@@ -5075,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>379</v>
       </c>
@@ -5083,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>380</v>
       </c>
@@ -5091,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>381</v>
       </c>
@@ -5099,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>382</v>
       </c>
@@ -5107,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>383</v>
       </c>
@@ -5115,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>384</v>
       </c>
@@ -5123,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>385</v>
       </c>
@@ -5131,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>386</v>
       </c>
@@ -5139,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>387</v>
       </c>
@@ -5147,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>388</v>
       </c>
@@ -5155,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>389</v>
       </c>
@@ -5163,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>390</v>
       </c>
@@ -5171,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>391</v>
       </c>
@@ -5179,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>392</v>
       </c>
@@ -5187,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>393</v>
       </c>
@@ -5195,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>394</v>
       </c>
@@ -5203,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>395</v>
       </c>
@@ -5211,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>396</v>
       </c>
@@ -5219,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>397</v>
       </c>
@@ -5227,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>398</v>
       </c>
@@ -5235,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>399</v>
       </c>
@@ -5243,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>400</v>
       </c>
@@ -5251,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>401</v>
       </c>
@@ -5259,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>402</v>
       </c>
@@ -5267,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>403</v>
       </c>
@@ -5275,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>404</v>
       </c>
@@ -5283,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>405</v>
       </c>
@@ -5291,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>406</v>
       </c>
@@ -5299,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>407</v>
       </c>
@@ -5307,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>408</v>
       </c>
@@ -5315,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>409</v>
       </c>
@@ -5323,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>410</v>
       </c>
@@ -5331,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>411</v>
       </c>
@@ -5339,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>412</v>
       </c>
@@ -5347,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>413</v>
       </c>
@@ -5355,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -5363,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>415</v>
       </c>
@@ -5371,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>416</v>
       </c>
@@ -5379,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>417</v>
       </c>
@@ -5387,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>418</v>
       </c>
@@ -5395,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>419</v>
       </c>
@@ -5403,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>420</v>
       </c>
@@ -5411,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>421</v>
       </c>
@@ -5419,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>422</v>
       </c>
@@ -5427,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>423</v>
       </c>
@@ -5435,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>424</v>
       </c>
@@ -5443,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>425</v>
       </c>
@@ -5451,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>426</v>
       </c>
@@ -5459,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>427</v>
       </c>
@@ -5467,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>428</v>
       </c>
@@ -5475,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>429</v>
       </c>
@@ -5483,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>430</v>
       </c>
@@ -5491,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>431</v>
       </c>
@@ -5499,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>432</v>
       </c>
@@ -5507,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>433</v>
       </c>
@@ -5515,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>434</v>
       </c>
@@ -5523,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>435</v>
       </c>
@@ -5531,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>436</v>
       </c>
@@ -5539,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>437</v>
       </c>
@@ -5547,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>438</v>
       </c>
@@ -5555,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>439</v>
       </c>
@@ -5563,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>440</v>
       </c>
@@ -5571,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>441</v>
       </c>
@@ -5579,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>442</v>
       </c>
@@ -5587,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>443</v>
       </c>
@@ -5595,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>444</v>
       </c>
@@ -5603,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>445</v>
       </c>
@@ -5611,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>446</v>
       </c>
@@ -5619,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>447</v>
       </c>
@@ -5627,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>448</v>
       </c>
@@ -5635,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>449</v>
       </c>
@@ -5643,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>450</v>
       </c>
@@ -5651,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>451</v>
       </c>
@@ -5659,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>452</v>
       </c>
@@ -5667,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>453</v>
       </c>
@@ -5675,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>454</v>
       </c>
@@ -5683,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>455</v>
       </c>
@@ -5691,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>456</v>
       </c>
@@ -5699,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>457</v>
       </c>
@@ -5707,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>458</v>
       </c>
@@ -5715,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>459</v>
       </c>
@@ -5723,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>460</v>
       </c>
@@ -5731,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>461</v>
       </c>
